--- a/post interv data .xlsx
+++ b/post interv data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{795CD7BB-FBE3-4D57-AEBD-EBCF4E029E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7918879-DCB1-435C-AF58-BDD9D5732489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D59058F-FC0C-42F1-A594-742B080EDECD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14785" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14788" uniqueCount="137">
   <si>
     <t>COUNTY CODE</t>
   </si>
@@ -458,12 +458,15 @@
   <si>
     <t>Year</t>
   </si>
+  <si>
+    <t>State</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +513,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -531,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -544,6 +554,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -860,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F818B9-E9AE-4D57-9E9A-2BADD5631BD9}">
-  <dimension ref="A1:S1361"/>
+  <dimension ref="A1:S1362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="B1299" sqref="B1299:D1299"/>
+    <sheetView tabSelected="1" topLeftCell="A1346" workbookViewId="0">
+      <selection activeCell="S1361" sqref="S1361:S1362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -79597,6 +79611,53 @@
         <v>2019</v>
       </c>
     </row>
+    <row r="1362" spans="1:19" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A1362" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1362" s="8"/>
+      <c r="C1362" s="8"/>
+      <c r="D1362" s="9"/>
+      <c r="E1362" s="9"/>
+      <c r="F1362" s="9"/>
+      <c r="G1362" s="9"/>
+      <c r="H1362" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1362" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1362" s="8">
+        <v>97422</v>
+      </c>
+      <c r="K1362" s="8">
+        <v>1592</v>
+      </c>
+      <c r="L1362" s="8">
+        <v>95830</v>
+      </c>
+      <c r="M1362" s="8">
+        <v>748</v>
+      </c>
+      <c r="N1362" s="8">
+        <v>14</v>
+      </c>
+      <c r="O1362" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="P1362" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="Q1362" s="8">
+        <v>42.8</v>
+      </c>
+      <c r="R1362" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="S1362" s="2">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/post interv data .xlsx
+++ b/post interv data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C093B303-1D76-4862-A781-D1DB518A8505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDE0E4AC-C64E-49C5-A74A-0EA8D677EFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D59058F-FC0C-42F1-A594-742B080EDECD}"/>
   </bookViews>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F818B9-E9AE-4D57-9E9A-2BADD5631BD9}">
   <dimension ref="A1:T1362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView tabSelected="1" topLeftCell="A1335" workbookViewId="0">
+      <selection activeCell="F1254" sqref="F1254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61641,7 +61641,7 @@
         <v>680</v>
       </c>
       <c r="D1005" s="6" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="E1005" s="5"/>
       <c r="F1005" s="6" t="s">
@@ -77021,7 +77021,7 @@
         <v>680</v>
       </c>
       <c r="D1254" s="2" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F1254" s="2" t="s">
         <v>19</v>
